--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3427.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3427.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8691155888357865</v>
+        <v>1.381914138793945</v>
       </c>
       <c r="B1">
-        <v>1.234192315122277</v>
+        <v>2.658785343170166</v>
       </c>
       <c r="C1">
-        <v>2.320869370255568</v>
+        <v>5.866413593292236</v>
       </c>
       <c r="D1">
-        <v>5.003547898365346</v>
+        <v>2.266639232635498</v>
       </c>
       <c r="E1">
-        <v>2.785830757591937</v>
+        <v>1.210982084274292</v>
       </c>
     </row>
   </sheetData>
